--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.MAYTINH-L3JT85N\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -42,35 +42,164 @@
   </si>
   <si>
     <t>Em có quản lý hợp đồng của khách hàng và datacenter không? Tại sao lại không có ghi chú về thời hạn hết hợp đồng. Lúc hết hợp đồng phải thông báo hệ thống chứ?</t>
+  </si>
+  <si>
+    <t>Làm sao để biết shifthead nào đang được active, shifthead nào đang không active?</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Ghi chú sẵn hướng dẫn deploy. Phòng trường hợp được yêu cầu chạy thử để hệ thống tự generate ra shift</t>
+  </si>
+  <si>
+    <t>Chúng em có thiết lập một hàm… (Hỏi anh Tùng lại về cách mà automatic generate đang hoạt động)</t>
+  </si>
+  <si>
+    <t>Lỡ shifthead bị bệnh và muốn nghỉ hoặc muốn đổi ca với một shifthead khác thì sao?</t>
+  </si>
+  <si>
+    <t>Chúng em đã có tham khảo về việc phân ca trực trong 1 nhóm tại một số trung tâm quản lý cơ sở dữ liệu. Em nhận thấy rằng, ở Việt nam, những công ty có tính chất công việc là làm 24/24 thì thường sẽ phân chia công việc theo nguyên tắc "3 ca 4 kiếp". 3 ca trực trong 1 ngày và 4 kiếp (tức là nhóm trực) sẽ luôn phiên trực ca</t>
+  </si>
+  <si>
+    <t>Chuẩn bị sẵn cách trình bày 3 ca 4 kiếp để cho người nghe thấy là sau 1 khoảng thời gian nhất định, vòng lặp sẽ lặp lại như cũ. Liên quan đến cách generate</t>
+  </si>
+  <si>
+    <t>Nếu hệ thống có nhiều hơn 4 nhóm và làm 1 ngày 5 ca thì sao?</t>
+  </si>
+  <si>
+    <t>Ai sẽ là người đầu tiên kích hoạt hệ thống tự động generate assign shift</t>
+  </si>
+  <si>
+    <t>Chuẩn bị file cấu hình</t>
+  </si>
+  <si>
+    <t>Đối với những offline request, nếu khách hàng hẹn mà không tới thì sao?</t>
+  </si>
+  <si>
+    <t>Đối với những offline request, nếu khách hàng muốn nhờ một người khác đi thay thế mình thì sao? (Vì anh ta bận)</t>
+  </si>
+  <si>
+    <t>Đối với offline request, nếu khách hàng muốn đổi ngày hẹn sang một ngày khác thì sao?</t>
+  </si>
+  <si>
+    <t>Trước khi dùng hệ thống, nhân viên phải ghi chú với khách hàng rằng nếu muốn nhờ người khác đi dùm thì phải ghi tên, số điện thoại và cmnd của người đó ở mục Description</t>
+  </si>
+  <si>
+    <t>Hiện tại, hệ thống quy định khi request đã gửi đi thì không được edit nữa. Nên nếu trong phạm phi ngày hẹn hôm đó mà khách hàng không đến thì nhân viên ở ca trực cuối ngày sẽ reject request của khách. Và khách hàng phải tạo lại request mới với thời gian phù hợp</t>
+  </si>
+  <si>
+    <t>Nhân viên có tạo request dùm khách hàng được không?</t>
+  </si>
+  <si>
+    <t>Trường hợp  khách hàng không muốn sử dụng dịch vụ của hệ thống nữa, thì họ phải làm gì?</t>
+  </si>
+  <si>
+    <t>Khi khách hàng đơn phương muốn chấm dứt hợp đồng, thì họ sẽ liên hệ trực tiếp với phòng sales của datacenter.
+Sau khi hoàn thành những request đem server ra (đồng nghĩa với việc trả lại hết ip của server), thì shift manager mới tiến hành deactivate account của khách hàng</t>
+  </si>
+  <si>
+    <t>3 ca 4 kiếp là gì?</t>
+  </si>
+  <si>
+    <t>Làm slide</t>
+  </si>
+  <si>
+    <t>1 ngày làm việc chia ra làm 3 ca trực: Ca 1 từ 6h sáng đến 2h chiều, ca 2 từ 2h chiều đến 10h tối, ca 3 từ 10h tối đến 6h sáng hôm sau</t>
+  </si>
+  <si>
+    <t>Đối với offline request, khách hàng có thể hẹn được vào khoảng thời gian nào. Có quy định là từ lúc send request đến lúc khách hàng đến datacenter cách nhau bao lâu không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu khách hàng đang đi ngoài đường, </t>
+  </si>
+  <si>
+    <t>Default IP là gì?</t>
+  </si>
+  <si>
+    <t>Tại sao server có nhiều IP</t>
+  </si>
+  <si>
+    <t>Tại sao tất cả IP của một server phải cùng thuộc 1 range</t>
+  </si>
+  <si>
+    <t>IP Address range là gì?</t>
+  </si>
+  <si>
+    <t>Rack là gì? Rack có liên quan gì đến server?</t>
+  </si>
+  <si>
+    <t>Show cách đặt server trong rack</t>
+  </si>
+  <si>
+    <t>Nêu lên tầm quan trọng của default ip trong hệ thống</t>
+  </si>
+  <si>
+    <t>Nếu thông tin của các server giống nhau thì làm sao phân biệt</t>
+  </si>
+  <si>
+    <t>Identity của server trong hệ thống là default IP của nó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nêếu mà  đã deactivate </t>
+  </si>
+  <si>
+    <t>Server thường sẽ có model và maker, sao hệ thống ko lưu?</t>
+  </si>
+  <si>
+    <t>Trung tâm này chỉ dùng 1 loại rack 42U, dành cho server ngang. Mỗi rack không cố định số lượng server</t>
+  </si>
+  <si>
+    <t>Trường hợp nhập nhầm IP range, rồi deactivate. Sau đó một thời gian, IP range mà mình nhập nhầm lại được đưa vào hệ thống. Lúc này xử lý làm sao? ; server có 3 loại là 1U, 2U và 4U</t>
+  </si>
+  <si>
+    <t>Quy định đánh tên rack là như thế nào?</t>
+  </si>
+  <si>
+    <t>Trường hợp hết rack cho khách để thuê thì làm gì?</t>
+  </si>
+  <si>
+    <t>Trường hợp hết IP để assign hoặc change thì làm gì</t>
+  </si>
+  <si>
+    <t>Khách hàng thuê rack để làm gì? Mọi khách hàng đều phải thuê rack mới đặt được server hả?</t>
+  </si>
+  <si>
+    <t>Khi tìm vị trí để đặt server, thì ưu tiên tìm kiếm ntn?</t>
+  </si>
+  <si>
+    <t>Khi assign location, hệ thống tự động liệt kê những rack thỏa mãn nhu cầu về kích cỡ và công suất. Độ ưu tiên theo thứ tự trong database.</t>
+  </si>
+  <si>
+    <t>Làm cách nào để liệt kê ra ip trong 1 range</t>
+  </si>
+  <si>
+    <t>Gateway để làm gì</t>
   </si>
   <si>
     <t>Về biên bản mà tụi em xuất ra là một loại giấy tờ có tên là "Biên bản bàn giao kỹ thuật". Biên bản này chỉ được xuất ra khi khách hàng muốn gửi server vào hệ thống. 
 Biên bản xác nhận rằng vào thời gian nào khách hàng đã đem server cài đặt vào datacenter
-Biên bản này không có liên quan gì đến hợp đồng sử dụng dịch vụ giữa khách hàng và datacenter. Trong hệ thống này, chúng em không quản lý hợp đồng hay ràng buộc sử dụng dịch vụ. Những việc đó sẽ do bộ phận khác ngoài hệ thống làm.</t>
-  </si>
-  <si>
-    <t>Làm sao để biết shifthead nào đang được active, shifthead nào đang không active?</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Ghi chú sẵn hướng dẫn deploy. Phòng trường hợp được yêu cầu chạy thử để hệ thống tự generate ra shift</t>
-  </si>
-  <si>
-    <t>Chúng em có thiết lập một hàm… (Hỏi anh Tùng lại về cách mà automatic generate đang hoạt động)</t>
-  </si>
-  <si>
-    <t>Lỡ shifthead bị bệnh và muốn nghỉ hoặc muốn đổi ca với một shifthead khác thì sao?</t>
-  </si>
-  <si>
-    <t>Chúng em đã có tham khảo về việc phân ca trực trong 1 nhóm tại một số trung tâm quản lý cơ sở dữ liệu. Em nhận thấy rằng, ở Việt nam, những công ty có tính chất công việc là làm 24/24 thì thường sẽ phân chia công việc theo nguyên tắc "3 ca 4 kiếp". 3 ca trực trong 1 ngày và 4 kiếp (tức là nhóm trực) sẽ luôn phiên trực ca</t>
-  </si>
-  <si>
-    <t>Chuẩn bị sẵn cách trình bày 3 ca 4 kiếp để cho người nghe thấy là sau 1 khoảng thời gian nhất định, vòng lặp sẽ lặp lại như cũ. Liên quan đến cách generate</t>
-  </si>
-  <si>
-    <t>Nếu hệ thống có nhiều hơn 4 nhóm và làm 1 ngày 5 ca thì sao?</t>
+Biên bản này không có liên quan gì đến hợp đồng sử dụng dịch vụ giữa khách hàng và datacenter. Trong hệ thống này, chúng em không quản lý hợp đồng hay ràng buộc sử dụng dịch vụ. Những việc đó sẽ do bộ phận khác ngoài hệ thống làm.
+- Ràng buộc thời gian mang server vào và ra, mặc định bộ phận sale sẽ quản lý và nhắc nhở, hệ thống ko can thiệp (vì liên quan đến phí thuê, trả tiền rồi hay chưa)</t>
+  </si>
+  <si>
+    <t>Tại sao hệ thống lại làm bằng tiếng Anh</t>
+  </si>
+  <si>
+    <t>Đối tượng sử dụng hệ thống này là kỹ thuật viên, nên hiểu tiếng Anh nghiệp vụ  sử dụng tiếng Anh.
+Nghiệp vụ này sử dụng từ tiếng Anh chủ yếu, nên khách hàng sd server hầu như sẽ làm quen được nhanh chóng</t>
+  </si>
+  <si>
+    <t>Nếu trường hợp khách hàng muốn đến server để cài đặt hoặc tham quan, thì làm request gì?</t>
+  </si>
+  <si>
+    <t>Nếu trường hợp server của hệ thống thì sao</t>
+  </si>
+  <si>
+    <t>hệ thống chỉ quản lý server của khách hàng</t>
+  </si>
+  <si>
+    <t>Hệ thống của bạn dùng công nghệ nào để hiện thực?</t>
   </si>
 </sst>
 </file>
@@ -132,7 +261,7 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -154,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D20" totalsRowShown="0">
-  <autoFilter ref="A5:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:D170" totalsRowShown="0">
+  <autoFilter ref="A5:D170"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No." dataDxfId="2"/>
     <tableColumn id="2" name="Questions" dataDxfId="1"/>
@@ -429,16 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="64" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="58.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
@@ -464,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -475,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -483,13 +612,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -497,77 +626,1105 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>45</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+      <c r="C114" s="6"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>111</v>
+      </c>
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>112</v>
+      </c>
+      <c r="C117" s="6"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>113</v>
+      </c>
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>114</v>
+      </c>
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>115</v>
+      </c>
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>116</v>
+      </c>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>117</v>
+      </c>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>118</v>
+      </c>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>119</v>
+      </c>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>120</v>
+      </c>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>121</v>
+      </c>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>122</v>
+      </c>
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>123</v>
+      </c>
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>124</v>
+      </c>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>125</v>
+      </c>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>126</v>
+      </c>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>127</v>
+      </c>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>128</v>
+      </c>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>129</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>130</v>
+      </c>
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>131</v>
+      </c>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>132</v>
+      </c>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>133</v>
+      </c>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>134</v>
+      </c>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>135</v>
+      </c>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>136</v>
+      </c>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>137</v>
+      </c>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>138</v>
+      </c>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>139</v>
+      </c>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>140</v>
+      </c>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>141</v>
+      </c>
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>142</v>
+      </c>
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>143</v>
+      </c>
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>144</v>
+      </c>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>145</v>
+      </c>
+      <c r="C150" s="6"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>146</v>
+      </c>
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>147</v>
+      </c>
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>148</v>
+      </c>
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>149</v>
+      </c>
+      <c r="C154" s="6"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>150</v>
+      </c>
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>151</v>
+      </c>
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>152</v>
+      </c>
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>153</v>
+      </c>
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>154</v>
+      </c>
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>155</v>
+      </c>
+      <c r="C160" s="6"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>156</v>
+      </c>
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>157</v>
+      </c>
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>158</v>
+      </c>
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>159</v>
+      </c>
+      <c r="C164" s="6"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>160</v>
+      </c>
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>161</v>
+      </c>
+      <c r="C166" s="6"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>162</v>
+      </c>
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>163</v>
+      </c>
+      <c r="C168" s="6"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>164</v>
+      </c>
+      <c r="C169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>165</v>
+      </c>
+      <c r="C170" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Hệ thống của bạn dùng công nghệ nào để hiện thực?</t>
+  </si>
+  <si>
+    <t>Tại sao default IP và những ip khác của server phải cùng vùng</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A2:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +935,9 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
